--- a/01-Trimestre 1/3. Historias de usuario/Historias de usuario modulo de inventarios.xlsx
+++ b/01-Trimestre 1/3. Historias de usuario/Historias de usuario modulo de inventarios.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj3iFkRYD1vcVH8VslLrMdFXmTSYQ=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="+inRl4QfZj7jKQLzb/R591tfY2/B6zj/FWl89rWmHhs="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Identificado ID de la historia</t>
   </si>
@@ -51,19 +51,112 @@
     <t xml:space="preserve">Resultado / Comportamiento esperado </t>
   </si>
   <si>
-    <t>HU-GI-001 (Referente al CU-001 _CU-004)</t>
-  </si>
-  <si>
-    <t>Como empleado</t>
-  </si>
-  <si>
-    <t>Necesito crear inventarios de producto</t>
+    <t>HU-GI-001  (Referente al CU-001-CU-002-CU-003-CU-004)</t>
+  </si>
+  <si>
+    <t>Como Empleado</t>
+  </si>
+  <si>
+    <t>Necesito crear  insumos</t>
+  </si>
+  <si>
+    <t>Con el fin de de calcular y manejar los insumos que se tengan en bodega</t>
+  </si>
+  <si>
+    <t>Listar insumos</t>
+  </si>
+  <si>
+    <t>En caso de que se necesiten listar los insumos</t>
+  </si>
+  <si>
+    <t>Desplegar una ventana donde se visualizan lso insumos registrados</t>
+  </si>
+  <si>
+    <t>El sistema mostrara  una ventana donde se despliega el formulario donde estan almacenados los inusmos creados</t>
+  </si>
+  <si>
+    <t>Modificar inventario de insumos</t>
+  </si>
+  <si>
+    <t>En caso de que se quiera modificar algun dato del insumo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desplegar un formulario en el cual se pueda modificar </t>
+  </si>
+  <si>
+    <t>El sistema mostrara  una ventana donde esta el formulario para cambiar el campo que se desee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar insumos </t>
+  </si>
+  <si>
+    <t>En caso de que sea necesario borrar un insumo</t>
+  </si>
+  <si>
+    <t>Se abre una ventana donde sale la opcion de eliminar insumo</t>
+  </si>
+  <si>
+    <t>El sistema mostrara  una ventana donde esta la opcion de eliminar insumo</t>
+  </si>
+  <si>
+    <t>HU-GI-002   (Referente al CU-005-CU-006-CU-007-CU-008)</t>
+  </si>
+  <si>
+    <t>Como  Empleado</t>
+  </si>
+  <si>
+    <t>Necesito crear  maquinas</t>
+  </si>
+  <si>
+    <t>Con el fin de controlar el mantenimiento de las maquinas</t>
+  </si>
+  <si>
+    <t>Listar de maquinas</t>
+  </si>
+  <si>
+    <t>En caso de que se necesiten visualizar las maquinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desplegar una ventana donde se visualizan las maquinas creadas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema mostrara  una ventana donde se mostraran los registros anteriores </t>
+  </si>
+  <si>
+    <t>modificar inventario de maquinas</t>
+  </si>
+  <si>
+    <t>En caso de que se tenga que modifica un campo de maquinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desplegar un formulario en el cual se pueda modificar el campo </t>
+  </si>
+  <si>
+    <t>El sistema mostrara  una ventana con un formulario donde se modifica el campo que se quiera.</t>
+  </si>
+  <si>
+    <t>eliminar maquinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En caso de que ya se necesite eliminar un maquina </t>
+  </si>
+  <si>
+    <t>Se abre una ventana donde sale la opcion de eliminar maquina</t>
+  </si>
+  <si>
+    <t>El sistema mostrara  una ventana donde da la opcion de eliminar maquina.</t>
+  </si>
+  <si>
+    <t>HU-GI-003(Referente al CU-009-CU-010-CU-011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necesito crear inventarios </t>
   </si>
   <si>
     <t>Con el fin de registrar el producto ingresado a inventario</t>
   </si>
   <si>
-    <t>Consultar inventario de productos</t>
+    <t xml:space="preserve">Listar inventario </t>
   </si>
   <si>
     <t>En caso de que se haya modificado el producto</t>
@@ -72,10 +165,10 @@
     <t>Desplegar un menu en el cual pueda visualizar y editar el producto</t>
   </si>
   <si>
-    <t>El sistema mostrará un ventana donde se imprimira y enviara el registro</t>
-  </si>
-  <si>
-    <t>Modificar inventario de productos</t>
+    <t>El sistema mostrará un ventana donde se listaran los inventarios registrados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar inventario </t>
   </si>
   <si>
     <t>En caso de que se quiera cambiar la cantidad de  productos ingresados</t>
@@ -84,133 +177,7 @@
     <t>Desplegar un menu en el cual se pueda modificar o ingresar la inquietud que se tenga</t>
   </si>
   <si>
-    <t>El sistema mostrará un ventana donde se registrará la cantidad de stock y enviara una notificacion si este se agota</t>
-  </si>
-  <si>
-    <t>Cambiar estado del producto</t>
-  </si>
-  <si>
-    <t>En caso de que el producto ya haya sido entregado o siga en proceso de lavado</t>
-  </si>
-  <si>
-    <t>Desplegar un menu en el cual se pueda registrar el estado del producto</t>
-  </si>
-  <si>
-    <t>El sistema mostrará un ventana donde se registrará la novedad que tiene la maquina</t>
-  </si>
-  <si>
-    <t>HU-GI-003   (Referente al CU-005_CU-008)</t>
-  </si>
-  <si>
-    <t>Necesito crear inventario de insumos</t>
-  </si>
-  <si>
-    <t>Con el fin de de calcular y manejar los insumos que se tengan en bodega</t>
-  </si>
-  <si>
-    <t>Consultar inventarios de insumos</t>
-  </si>
-  <si>
-    <t>En caso de que no haya en stock</t>
-  </si>
-  <si>
-    <t>Desplegar un menu donde se pondran las cantidades de los insumos faltantes</t>
-  </si>
-  <si>
-    <t>El sistema mostrara  una pagina donde se tendra que registrar los insumos faltantes.</t>
-  </si>
-  <si>
-    <t>Modificar inventario de insumos</t>
-  </si>
-  <si>
-    <t>En caso de que se quiera modificar la cantidad del insumo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desplegar un menu en el cual se pueda modificar </t>
-  </si>
-  <si>
-    <t>El sistema mostrara  una ventana donde se ingresa la modificacion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambiar estado de insumos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En caso de que ya se hayan comprado los insumos o entregado </t>
-  </si>
-  <si>
-    <t>Se abre una ventana donde se ingresan los datos de de entrada de insumos.</t>
-  </si>
-  <si>
-    <t>El sistema mostrara  una ventana donde se visualiza las entradas de insumos y da la opcion de cambiar este recibido por un tardio.</t>
-  </si>
-  <si>
-    <t>HU-GI-004   (Referente al CU-009_CU-014)</t>
-  </si>
-  <si>
-    <t>Necesito crear inventario de maquinas</t>
-  </si>
-  <si>
-    <t>Con el fin de controlar el mantenimiento de las maquinas</t>
-  </si>
-  <si>
-    <t>Consultar inventarios de maquinas</t>
-  </si>
-  <si>
-    <t>En caso de que la maquina anteriormente tuviera alguna observacion</t>
-  </si>
-  <si>
-    <t>Despliega una ventana donde se visualizaran los mantenimientos,observaciones y seguimientos que se le hayan echo a las maquina anteriormente.</t>
-  </si>
-  <si>
-    <t>El sistema mostrara  una ventana donde se mostraran las obervaciones anteriores de la maquina.</t>
-  </si>
-  <si>
-    <t>modificar inventario de maquinas</t>
-  </si>
-  <si>
-    <t>En caso de que el codigo de maquinaria ingresado no sea el correcto</t>
-  </si>
-  <si>
-    <t>Se abre una ventana emergente donde se ingresan los datos del empleado para poder modificar el codigo.</t>
-  </si>
-  <si>
-    <t>El sistema mostrara  una ventana donde tiene que ingresar su usuario y contraseña para poder modificar el codigo o el registro.</t>
-  </si>
-  <si>
-    <t>cambiar estado de maquinas</t>
-  </si>
-  <si>
-    <t>En caso de que ya se haya agendado el mantenimiento</t>
-  </si>
-  <si>
-    <t>Se abre una ventana donde se visualiza los agendamientos de la maquina.</t>
-  </si>
-  <si>
-    <t>El sistema mostrara  una ventana donde se muestra la ultima vez de agendamiendo de la maquina.</t>
-  </si>
-  <si>
-    <t>Ingresar seguimiento de maquinas</t>
-  </si>
-  <si>
-    <t>En caso de se hayan echo las observaciones de rutina a las maquinas y estas tuvieran algun problema</t>
-  </si>
-  <si>
-    <t>Despliega una ventana donde se mostran las observaciones anteriores y una barra de texto para colocar el seguimiento e observaciones registradas.</t>
-  </si>
-  <si>
-    <t>El sistema mostrara  una ventana donde se muestran las observaciones anteriores y abajo ingresa el seguimiento y la observacion registrada de la maquina.</t>
-  </si>
-  <si>
-    <t>Agendar mantenimiento</t>
-  </si>
-  <si>
-    <t>En caso de que una maquina necesitara mantenimiento</t>
-  </si>
-  <si>
-    <t>Se abre una ventana donde se agenda el mantenimiento poniendo dia y hora de este.</t>
-  </si>
-  <si>
-    <t>El sistema mostrara  una ventana donde se ingresa el tipo de matenimiento con fecha para agendamiento.</t>
+    <t>El sistema mostrará un ventana donde se modificara algun campo del inventario</t>
   </si>
 </sst>
 </file>
@@ -329,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -346,20 +313,11 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -369,6 +327,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,7 +625,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" ht="18.75" customHeight="1">
+    <row r="5" ht="63.0" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -680,274 +641,210 @@
       <c r="E5" s="8">
         <v>1.0</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="30.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="E6" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8">
+    <row r="7">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="11">
         <v>2.0</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="45.0" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" ht="63.75" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>26</v>
+      <c r="F9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="13">
         <v>1.0</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>33</v>
+      <c r="F11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="13">
+    <row r="12" ht="30.75" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" ht="15.0" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="13">
         <v>2.0</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>37</v>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>41</v>
-      </c>
+    <row r="14" ht="45.0" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
-    <row r="13">
-      <c r="A13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
@@ -1918,23 +1815,14 @@
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -1942,20 +1830,26 @@
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
